--- a/st00.docs/html&css정리.20190615.xlsx
+++ b/st00.docs/html&css정리.20190615.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\htmlcss\st00.docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="474">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table/tr/td/th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>줄 바꿈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목록 태그
 (목록, 메뉴에서 사용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,12 +447,6 @@
   <si>
     <t>시맨택 태그
 (페이지 뼈대 설정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용도: 다른 태그를 감싼다. &lt;==&gt; 영역을 설정한다.
-사용: 페이지 뼈대 설정하는 데 사용 할 수있다.
-전체 너비 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2120,15 +2111,52 @@
     <t>태그, 요소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>줄 바꿈
+-&gt; p 태그 안에서 본문의 내용의 줄바꿈을 할때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">용도: 다른 태그를 감싼다. &lt;==&gt; 영역을 설정한다.
+사용: 페이지 뼈대 설정하는 데 사용 할 수있다.
+전체 너비 사용
+=&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table/tr/td/소
+thead/tbody/tfoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id = "a1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class = "b1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2200,15 +2228,6 @@
       <name val="나눔고딕코딩"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2311,6 +2330,32 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2511,7 +2556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2626,33 +2671,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2665,37 +2683,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2722,7 +2740,7 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2731,7 +2749,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2743,10 +2761,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2755,10 +2773,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2767,10 +2785,10 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2782,88 +2800,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2875,26 +2881,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2905,6 +2956,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2927,7 +2981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="내용 개체 틀 3"/>
+        <xdr:cNvPr id="2" name="내용 개체 틀 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noGrp="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2971,7 +3031,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="그룹 6"/>
+        <xdr:cNvPr id="7" name="그룹 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2984,7 +3050,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="직선 연결선 3"/>
+          <xdr:cNvPr id="4" name="직선 연결선 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3018,7 +3090,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+          <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3069,7 +3147,13 @@
     <xdr:ext cx="4618009" cy="1300616"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3102,7 +3186,13 @@
     <xdr:ext cx="3987045" cy="2049496"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3135,7 +3225,13 @@
     <xdr:ext cx="2946852" cy="551032"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3167,7 +3263,13 @@
     <xdr:ext cx="4510599" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3199,7 +3301,13 @@
     <xdr:ext cx="2897995" cy="514542"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3237,7 +3345,13 @@
     <xdr:ext cx="1203586" cy="692727"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3275,7 +3389,13 @@
     <xdr:ext cx="1204401" cy="732087"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3313,7 +3433,13 @@
     <xdr:ext cx="2431295" cy="1559287"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3352,7 +3478,13 @@
     <xdr:ext cx="3915624" cy="2511248"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3391,7 +3523,13 @@
     <xdr:ext cx="3635776" cy="2301194"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10" descr="ch06-06.png"/>
+        <xdr:cNvPr id="11" name="그림 10" descr="ch06-06.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3424,7 +3562,13 @@
     <xdr:ext cx="1915141" cy="550991"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3498,7 +3642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3531,9 +3675,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3566,6 +3727,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3744,273 +3922,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="114" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="114" customWidth="1"/>
+    <col min="3" max="3" width="63.875" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="115" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="B3" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="116"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="118"/>
+      <c r="B11" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33">
+      <c r="A12" s="119"/>
+      <c r="B12" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="66">
+      <c r="A13" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="66">
+      <c r="A14" s="119"/>
+      <c r="B14" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="99">
+      <c r="A15" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="121" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
-      <c r="B11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="C15" s="121" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="122" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
+      <c r="B16" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33">
+      <c r="A17" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="66">
+      <c r="A18" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
-      <c r="B14" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B18" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33">
+      <c r="A19" s="119"/>
+      <c r="B19" s="121" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="46" t="s">
+      <c r="C19" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
-      <c r="B19" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" ht="47.25" customHeight="1">
       <c r="A20" s="124" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" customHeight="1">
       <c r="A21" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="127"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="92" t="s">
+      <c r="G21" s="128"/>
+    </row>
+    <row r="22" spans="1:7" ht="33">
+      <c r="A22" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33">
+      <c r="A23" s="119"/>
+      <c r="B23" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C23" s="121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="94"/>
-      <c r="B23" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="38" t="s">
+      <c r="B24" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="118"/>
+      <c r="B25" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="118"/>
+      <c r="B26" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="118"/>
+      <c r="B27" s="116" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="C27" s="116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="118"/>
+      <c r="B28" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="93"/>
-      <c r="B25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="93"/>
-      <c r="B26" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="93"/>
-      <c r="B28" s="14" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="119"/>
+      <c r="B29" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
-      <c r="B29" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>106</v>
+      <c r="C29" s="116" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4030,13 +4209,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K13"/>
+  <dimension ref="A2:K15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -4049,180 +4228,180 @@
     <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
-        <v>439</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+    <row r="2" spans="1:11" ht="26.25">
+      <c r="A2" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25">
+      <c r="A4" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25">
+      <c r="A5" s="81" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="H5" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>445</v>
-      </c>
-      <c r="F5" s="90" t="s">
+      <c r="I5" s="81" t="s">
         <v>447</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="J5" s="81" t="s">
         <v>448</v>
       </c>
-      <c r="H5" s="90" t="s">
-        <v>449</v>
-      </c>
-      <c r="I5" s="90" t="s">
-        <v>450</v>
-      </c>
-      <c r="J5" s="90" t="s">
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="K5" s="90"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>454</v>
-      </c>
       <c r="B6" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="H6" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>465</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B7" s="91" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>460</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>463</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="H7" s="91" t="s">
-        <v>466</v>
+        <v>454</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>463</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -4233,13 +4412,13 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4250,16 +4429,38 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+    <row r="13" spans="1:11" ht="20.25">
+      <c r="A13" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14" t="s">
+        <v>470</v>
+      </c>
+      <c r="H14" t="s">
+        <v>469</v>
+      </c>
+      <c r="I14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" t="s">
+        <v>472</v>
+      </c>
+      <c r="H15" t="s">
+        <v>469</v>
+      </c>
+      <c r="I15" t="s">
+        <v>473</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4282,590 +4483,595 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="66.375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="86.625" style="49"/>
+    <col min="1" max="1" width="14.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="66.375" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="86.625" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="86" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="52"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="89"/>
+      <c r="B15" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="89"/>
+      <c r="B16" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="89"/>
+      <c r="B17" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="89"/>
+      <c r="B18" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="89"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="87"/>
+    </row>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="89"/>
+      <c r="B20" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="89"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="87"/>
+    </row>
+    <row r="22" spans="1:4" ht="27">
+      <c r="A22" s="89"/>
+      <c r="B22" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="90"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="87"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="50"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="92"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="87"/>
+      <c r="B36" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="44"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="87"/>
+      <c r="B37" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="44"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="87"/>
+      <c r="B38" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="87"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="87"/>
+      <c r="B40" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="44"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="87"/>
+      <c r="B41" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="87"/>
+      <c r="B42" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" s="44"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="87"/>
+      <c r="B43" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="44"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="87"/>
+      <c r="B44" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="44"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="87"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="87"/>
+      <c r="B46" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="87"/>
+      <c r="B47" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="87"/>
+      <c r="B48" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="D48" s="44"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="87"/>
+      <c r="B49" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C49" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D49" s="44"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="43" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="105" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="51" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
-      <c r="B15" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
-      <c r="B16" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
-      <c r="B18" s="99" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="99"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
-      <c r="B20" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="99"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
-      <c r="B22" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="99" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="104"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="99"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="101"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
-      <c r="B36" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="53"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="99"/>
-      <c r="B37" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="53"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="99"/>
-      <c r="B38" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="53"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="99"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="53"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
-      <c r="B40" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="77" t="s">
-        <v>386</v>
-      </c>
-      <c r="D40" s="53"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
-      <c r="B41" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>387</v>
-      </c>
-      <c r="D41" s="53"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="C42" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="D42" s="53"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
-      <c r="B43" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="53"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="53"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="99"/>
-      <c r="B46" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="99"/>
-      <c r="B47" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="85" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
-      <c r="B48" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="53"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="99"/>
-      <c r="B49" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="53"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="102" t="s">
+      <c r="B52" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="C52" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="D52" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="51" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="88" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="103"/>
-      <c r="B54" s="85" t="s">
+      <c r="B53" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="85" t="s">
-        <v>417</v>
-      </c>
-      <c r="D54" s="85" t="s">
+      <c r="C53" s="42" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="103"/>
-      <c r="B55" s="51" t="s">
+      <c r="D53" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="51" t="s">
-        <v>418</v>
-      </c>
-      <c r="D55" s="51" t="s">
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="89"/>
+      <c r="B54" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>414</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="89"/>
+      <c r="B55" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="103"/>
-      <c r="B56" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="104"/>
-      <c r="B57" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="51" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="89"/>
+      <c r="B56" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="C56" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="D56" s="42" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="90"/>
+      <c r="B57" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4876,11 +5082,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4896,7 +5097,7 @@
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
@@ -4907,1018 +5108,1025 @@
     <col min="13" max="13" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="23"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>378</v>
+    <row r="2" spans="1:8" ht="36" customHeight="1">
+      <c r="A2" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>375</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="109"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="81" customHeight="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42.75">
+      <c r="A4" s="100"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="100"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="100"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" customHeight="1">
+      <c r="A7" s="100"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="D3" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="86.25" customHeight="1">
+      <c r="A8" s="100"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42.75">
+      <c r="A9" s="100"/>
+      <c r="B9" s="98" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>410</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>412</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="109" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>413</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="80" t="s">
-        <v>361</v>
+    <row r="10" spans="1:8" ht="57">
+      <c r="A10" s="100"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="71" t="s">
+        <v>358</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
-      <c r="B11" s="109"/>
+    <row r="11" spans="1:8" ht="42.75">
+      <c r="A11" s="100"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>358</v>
+        <v>356</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>355</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="109"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="100"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="109"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="100"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="100"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>350</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:8" ht="28.5">
+      <c r="A15" s="100"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>344</v>
+      <c r="D15" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>341</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="100"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="100"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>346</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="100"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="109"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="100"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="100"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="109"/>
+    <row r="21" spans="1:5" ht="28.5">
+      <c r="A21" s="100"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="109" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57">
+      <c r="A22" s="100"/>
+      <c r="B22" s="98" t="s">
+        <v>337</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
-      <c r="B23" s="109"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="100"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
-      <c r="B24" s="109"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.5">
+      <c r="A24" s="100"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="57">
+      <c r="A25" s="101"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="65"/>
-    </row>
-    <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56"/>
+    </row>
+    <row r="27" spans="1:5" ht="209.25" customHeight="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38" t="s">
+        <v>325</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="26"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A28" s="110" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="110" t="s">
-        <v>326</v>
+    <row r="28" spans="1:5" ht="71.25">
+      <c r="A28" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>323</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="114">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="85.5">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="109"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="114" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="115" t="s">
-        <v>318</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>315</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="63" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42.75">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="54" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="109"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="109"/>
-      <c r="B36" s="109"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
-      <c r="B37" s="109"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="114">
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
-      <c r="B38" s="109"/>
+        <v>306</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="98"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="109"/>
-      <c r="B39" s="109"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
-      <c r="B40" s="109"/>
+    <row r="40" spans="1:5" ht="28.5">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
+        <v>301</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="42.75">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
-      <c r="B42" s="109"/>
+        <v>298</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="109"/>
-      <c r="B43" s="110" t="s">
-        <v>296</v>
+    <row r="43" spans="1:5">
+      <c r="A43" s="98"/>
+      <c r="B43" s="102" t="s">
+        <v>293</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="109"/>
-      <c r="B44" s="109"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="109"/>
-      <c r="B45" s="109"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="109"/>
-      <c r="B46" s="109"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="109"/>
-      <c r="B47" s="109"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="42.75">
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
-      <c r="B48" s="110" t="s">
-        <v>285</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="98"/>
+      <c r="B48" s="102" t="s">
+        <v>282</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="109"/>
-      <c r="B49" s="109"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
-      <c r="B50" s="109"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="109"/>
-      <c r="B51" s="109"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
-      <c r="B52" s="109"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="42.75">
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="109"/>
-      <c r="B53" s="109" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.5">
+      <c r="A53" s="98"/>
+      <c r="B53" s="98" t="s">
+        <v>275</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="109"/>
-      <c r="B55" s="109"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="109"/>
-      <c r="B56" s="109" t="s">
-        <v>270</v>
+    <row r="56" spans="1:5" ht="28.5">
+      <c r="A56" s="98"/>
+      <c r="B56" s="98" t="s">
+        <v>267</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="109"/>
-      <c r="B57" s="109"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="109"/>
-      <c r="B58" s="109"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="98"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="23"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="106" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="119" t="s">
-        <v>261</v>
+    <row r="60" spans="1:5" ht="99.75">
+      <c r="A60" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="106" t="s">
+        <v>258</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="117"/>
-      <c r="B61" s="120"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="104"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="118" t="s">
-        <v>258</v>
+    <row r="62" spans="1:5" ht="57">
+      <c r="A62" s="100"/>
+      <c r="B62" s="105" t="s">
+        <v>255</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="118"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="42.75">
+      <c r="A63" s="100"/>
+      <c r="B63" s="105"/>
       <c r="C63" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A64" s="107"/>
-      <c r="B64" s="118"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="42.75">
+      <c r="A64" s="100"/>
+      <c r="B64" s="105"/>
       <c r="C64" s="32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A65" s="107"/>
-      <c r="B65" s="118"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="42.75">
+      <c r="A65" s="100"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A66" s="107"/>
-      <c r="B66" s="118"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="57">
+      <c r="A66" s="100"/>
+      <c r="B66" s="105"/>
       <c r="C66" s="32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A67" s="107"/>
-      <c r="B67" s="118"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="57">
+      <c r="A67" s="100"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A68" s="107"/>
-      <c r="B68" s="118"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="42.75">
+      <c r="A68" s="100"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D68" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.5">
+      <c r="A69" s="100"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E69" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A69" s="107"/>
-      <c r="B69" s="118"/>
-      <c r="C69" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A70" s="108"/>
-      <c r="B70" s="118"/>
+    </row>
+    <row r="70" spans="1:5" ht="71.25">
+      <c r="A70" s="101"/>
+      <c r="B70" s="105"/>
       <c r="C70" s="31" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="62"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="53"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="76"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="65"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="67"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="29"/>
       <c r="E72" s="13"/>
     </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="B73" s="116" t="s">
-        <v>236</v>
+    <row r="73" spans="1:5" ht="57">
+      <c r="A73" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="99" t="s">
+        <v>233</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E73" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="94"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" ht="42.75">
+      <c r="A75" s="94"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="32" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="107"/>
-      <c r="C74" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A75" s="112"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="34" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="85.5">
+      <c r="A76" s="94"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="42.75">
+      <c r="A77" s="94"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="94"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="57">
+      <c r="A79" s="94"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="42.75">
+      <c r="A80" s="94"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="E80" s="34" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A76" s="112"/>
-      <c r="B76" s="107"/>
-      <c r="C76" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A77" s="112"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="112"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A79" s="112"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A80" s="112"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="112"/>
-      <c r="B81" s="107"/>
+    <row r="81" spans="1:5">
+      <c r="A81" s="94"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E81" s="32"/>
     </row>
-    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A82" s="113"/>
-      <c r="B82" s="108"/>
+    <row r="82" spans="1:5" ht="57">
+      <c r="A82" s="95"/>
+      <c r="B82" s="101"/>
       <c r="C82" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5929,13 +6137,6 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5952,14 +6153,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
@@ -5970,347 +6171,347 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+    <row r="2" spans="1:3" ht="17.25">
+      <c r="A2" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="1:3" ht="17.25">
+      <c r="A3" s="108"/>
+      <c r="B3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A4" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="1:3" ht="34.5">
+      <c r="A5" s="108"/>
+      <c r="B5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="1:3" ht="34.5">
+      <c r="A6" s="108"/>
+      <c r="B6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
-      <c r="B7" s="48" t="s">
+    <row r="7" spans="1:3" ht="34.5">
+      <c r="A7" s="108"/>
+      <c r="B7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A8" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="123"/>
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="A9" s="108"/>
+      <c r="B9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
-      <c r="B10" s="48" t="s">
+    <row r="10" spans="1:3" ht="34.5">
+      <c r="A10" s="108"/>
+      <c r="B10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
+    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
+      <c r="A11" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="109" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="122"/>
-      <c r="B12" s="48" t="s">
+    <row r="12" spans="1:3" ht="17.25" hidden="1">
+      <c r="A12" s="110"/>
+      <c r="B12" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="122"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+      <c r="C12" s="110"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="48" t="s">
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="A14" s="108"/>
+      <c r="B14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="123"/>
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="48" t="s">
+    <row r="16" spans="1:3" ht="34.5">
+      <c r="A16" s="108"/>
+      <c r="B16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
-      <c r="B17" s="48" t="s">
+    <row r="17" spans="1:3" ht="34.5">
+      <c r="A17" s="108"/>
+      <c r="B17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="123" t="s">
+    <row r="18" spans="1:3" ht="17.25">
+      <c r="A18" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="48" t="s">
+    <row r="19" spans="1:3" ht="17.25">
+      <c r="A19" s="108"/>
+      <c r="B19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="123"/>
-      <c r="B20" s="48" t="s">
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="108"/>
+      <c r="B20" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
-      <c r="B21" s="48" t="s">
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="108"/>
+      <c r="B21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="48" t="s">
+    <row r="22" spans="1:3" ht="51.75">
+      <c r="A22" s="108"/>
+      <c r="B22" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="123" t="s">
+    <row r="23" spans="1:3" ht="34.5">
+      <c r="A23" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="39" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="123"/>
-      <c r="B24" s="48" t="s">
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="108"/>
+      <c r="B24" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="22"/>
     </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
-      <c r="B25" s="48" t="s">
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="108"/>
+      <c r="B25" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="22"/>
     </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="123"/>
-      <c r="B26" s="48" t="s">
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="108"/>
+      <c r="B26" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="22"/>
     </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="123"/>
-      <c r="B27" s="48" t="s">
+    <row r="27" spans="1:3" ht="17.25">
+      <c r="A27" s="108"/>
+      <c r="B27" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="123"/>
-      <c r="B28" s="48" t="s">
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="108"/>
+      <c r="B28" s="39" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
     </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="123" t="s">
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="123"/>
-      <c r="B30" s="48" t="s">
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="108"/>
+      <c r="B30" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="22"/>
     </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
-      <c r="B31" s="48" t="s">
+    <row r="31" spans="1:3" ht="17.25">
+      <c r="A31" s="108"/>
+      <c r="B31" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="22"/>
     </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="123"/>
-      <c r="B32" s="48" t="s">
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="108"/>
+      <c r="B32" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="22"/>
     </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="123"/>
-      <c r="B33" s="48" t="s">
+    <row r="33" spans="1:3" ht="17.25">
+      <c r="A33" s="108"/>
+      <c r="B33" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="123"/>
-      <c r="B34" s="48" t="s">
+    <row r="34" spans="1:3" ht="17.25">
+      <c r="A34" s="108"/>
+      <c r="B34" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="22"/>
     </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
+    <row r="35" spans="1:3" ht="17.25">
+      <c r="A35" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C35" s="48" t="s">
+      <c r="B35" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="123" t="s">
+    <row r="36" spans="1:3" ht="34.5">
+      <c r="A36" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
-      <c r="B37" s="48" t="s">
+    <row r="37" spans="1:3" ht="34.5">
+      <c r="A37" s="108"/>
+      <c r="B37" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="123"/>
-      <c r="B38" s="48" t="s">
+    <row r="38" spans="1:3" ht="34.5">
+      <c r="A38" s="108"/>
+      <c r="B38" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="39" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190615.xlsx
+++ b/st00.docs/html&css정리.20190615.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="477">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,59 +538,9 @@
     <t>짝수</t>
   </si>
   <si>
-    <r>
-      <t>:nth-child(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>even</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>홀수</t>
   </si>
   <si>
-    <r>
-      <t>:nth-child(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>odd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>:last-child</t>
   </si>
   <si>
@@ -671,31 +621,6 @@
     <t>p[name|="row"]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">contains, "값"에 해당되는 단어가 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 있으면.  </t>
-    </r>
-  </si>
-  <si>
     <t>선택자[속성|=값]</t>
   </si>
   <si>
@@ -704,31 +629,6 @@
   </si>
   <si>
     <t>p[name~="row"]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">findword, "값"에 해당되는 단어가 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 있으면.</t>
-    </r>
   </si>
   <si>
     <t>선택자[속성~=값]</t>
@@ -1321,10 +1221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목록 스타일 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list-style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1359,10 +1255,6 @@
   </si>
   <si>
     <t>list-style-type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1654,62 +1546,6 @@
   </si>
   <si>
     <t>속성 선택자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>선택자[속성</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>선택자[속성=값</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>::after { clear:both; display:block; content:''; }</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2148,6 +1984,193 @@
     <t>.b1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>after를 사용하는 경우는 3가지를 같이 사용 / 유지보수가 편해짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록
+ul / ol 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 스타일 지정
+=&gt; 위의 3가지 스타일을 한번에 사용할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백. depth 1 이상(포함)인 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">크다. depth 1 과 같은 경우만 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>선택자[속성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>선택자[속성=값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">findword, "값"에 해당되는 단어가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>들어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 있으면.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">contains, "값"에 해당되는 단어가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>들어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 있으면.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:nth-child(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>odd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:nth-child(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>even</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::after { clear:both; display:block; content:''; }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2156,7 +2179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2231,78 +2254,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="나눔고딕코딩"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="나눔고딕코딩"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="나눔고딕코딩"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF211D1E"/>
-      <name val="나눔고딕코딩"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="나눔고딕코딩"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="나눔고딕코딩"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2314,24 +2267,6 @@
       <name val="나눔고딕코딩"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2356,6 +2291,131 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2556,7 +2616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2599,9 +2659,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2677,45 +2734,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2740,7 +2758,7 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2749,9 +2767,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2761,80 +2776,104 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2890,62 +2929,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3928,267 +3979,267 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="114" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="114" customWidth="1"/>
-    <col min="3" max="3" width="63.875" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="114"/>
+    <col min="1" max="1" width="17.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="62" customWidth="1"/>
+    <col min="3" max="3" width="63.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="115" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="115" t="s">
+      <c r="A2" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="63" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="116"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="64" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="64" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33">
-      <c r="A12" s="119"/>
-      <c r="B12" s="116" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="121" t="s">
-        <v>466</v>
+      <c r="C12" s="65" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="66">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="121" t="s">
-        <v>431</v>
+      <c r="C13" s="65" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="66">
-      <c r="A14" s="119"/>
-      <c r="B14" s="116" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="121" t="s">
-        <v>432</v>
+      <c r="C14" s="65" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="99">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="121" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>433</v>
+      <c r="B15" s="65" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="64" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="66">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="121" t="s">
-        <v>467</v>
+      <c r="C18" s="65" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="119"/>
-      <c r="B19" s="121" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="65" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="126" t="s">
-        <v>434</v>
+      <c r="C20" s="80" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="G21" s="128"/>
+      <c r="C21" s="81"/>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="65" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="119"/>
-      <c r="B23" s="129" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="64" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="118"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="64" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="118"/>
-      <c r="B26" s="116" t="s">
+      <c r="A26" s="78"/>
+      <c r="B26" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="118"/>
-      <c r="B27" s="116" t="s">
+      <c r="A27" s="78"/>
+      <c r="B27" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="64" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="118"/>
-      <c r="B28" s="116" t="s">
+      <c r="A28" s="78"/>
+      <c r="B28" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="64" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="119"/>
-      <c r="B29" s="116" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="64" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4211,26 +4262,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.125" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" style="72" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="72" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="72"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="26.25">
       <c r="A2" s="85" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -4242,18 +4294,18 @@
       <c r="I2" s="85"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="84" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -4261,177 +4313,177 @@
       <c r="E4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="74" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="G5" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="I5" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="J5" s="74" t="s">
+        <v>439</v>
+      </c>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="75" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>452</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>453</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>452</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>452</v>
+      </c>
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="75" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="81" t="s">
-        <v>442</v>
-      </c>
-      <c r="F5" s="81" t="s">
+      <c r="B7" s="76" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>454</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="75"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="75" t="s">
         <v>444</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8" s="75"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75" t="s">
+        <v>455</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="75" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="75" t="s">
         <v>446</v>
       </c>
-      <c r="I5" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>448</v>
-      </c>
-      <c r="K5" s="81"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>459</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>463</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="13" spans="1:11" ht="20.25">
       <c r="A13" s="83" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
@@ -4441,25 +4493,25 @@
       <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="G14" t="s">
-        <v>470</v>
-      </c>
-      <c r="H14" t="s">
-        <v>469</v>
-      </c>
-      <c r="I14" t="s">
-        <v>471</v>
+      <c r="G14" s="72" t="s">
+        <v>461</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>460</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="G15" t="s">
-        <v>472</v>
-      </c>
-      <c r="H15" t="s">
-        <v>469</v>
-      </c>
-      <c r="I15" t="s">
-        <v>473</v>
+      <c r="G15" s="72" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="72" t="s">
+        <v>460</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4477,591 +4529,594 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D57"/>
+  <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="66.375" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="86.625" style="40"/>
+    <col min="1" max="1" width="14.125" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="105" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="66.375" style="105" customWidth="1"/>
+    <col min="5" max="16384" width="86.625" style="105"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="104" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>211</v>
+      <c r="A3" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>207</v>
+      <c r="A4" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="107" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="107" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="106" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>468</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="115"/>
+      <c r="B15" s="107" t="s">
+        <v>471</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="115"/>
+      <c r="B16" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="106" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="115"/>
+      <c r="B17" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="115"/>
+      <c r="B18" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="115"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="109"/>
+    </row>
+    <row r="20" spans="1:4" ht="33">
+      <c r="A20" s="115"/>
+      <c r="B20" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>472</v>
+      </c>
+      <c r="D20" s="109" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="115"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="106" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="109"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="115"/>
+      <c r="B22" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="106" t="s">
+        <v>473</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="116"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="109"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="117"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="119"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="119"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="109"/>
+      <c r="B36" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="118"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="109"/>
+      <c r="B37" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="118"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="109"/>
+      <c r="B38" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="118"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="109"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="118"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="109"/>
+      <c r="B40" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" s="118"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="109"/>
+      <c r="B41" s="121" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="118" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="86" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="42" t="s">
+      <c r="D41" s="118"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="109"/>
+      <c r="B42" s="106" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="52"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="43" t="s">
+      <c r="C42" s="118" t="s">
+        <v>380</v>
+      </c>
+      <c r="D42" s="118"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="109"/>
+      <c r="B43" s="106" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="118"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="109"/>
+      <c r="B44" s="106" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="118"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="109"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="109"/>
+      <c r="B46" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="106" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="109"/>
+      <c r="B47" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="124" t="s">
+        <v>476</v>
+      </c>
+      <c r="E47" s="105" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="109"/>
+      <c r="B48" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="118"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="109"/>
+      <c r="B49" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="118"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C52" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D52" s="104" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="88" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="89"/>
-      <c r="B15" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="89"/>
-      <c r="B16" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="89"/>
-      <c r="B17" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="89"/>
-      <c r="B18" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="89"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="87"/>
-    </row>
-    <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="89"/>
-      <c r="B20" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="89"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="87"/>
-    </row>
-    <row r="22" spans="1:4" ht="27">
-      <c r="A22" s="89"/>
-      <c r="B22" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="90"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="87"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="50"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="92"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="87"/>
-      <c r="B36" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="44"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="87"/>
-      <c r="B37" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="44"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="87"/>
-      <c r="B38" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="44"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="87"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="44"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="87"/>
-      <c r="B40" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="D40" s="44"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="87"/>
-      <c r="B41" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="68" t="s">
-        <v>384</v>
-      </c>
-      <c r="D41" s="44"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="87"/>
-      <c r="B42" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>386</v>
-      </c>
-      <c r="D42" s="44"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="87"/>
-      <c r="B43" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="44"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="87"/>
-      <c r="B44" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="44"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="87"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="87"/>
-      <c r="B46" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="87"/>
-      <c r="B47" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="76" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="87"/>
-      <c r="B48" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="44"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="87"/>
-      <c r="B49" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="44"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="106" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="89"/>
-      <c r="B54" s="76" t="s">
+      <c r="A54" s="115"/>
+      <c r="B54" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="76" t="s">
-        <v>414</v>
-      </c>
-      <c r="D54" s="76" t="s">
+      <c r="C54" s="123" t="s">
+        <v>405</v>
+      </c>
+      <c r="D54" s="123" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="89"/>
-      <c r="B55" s="42" t="s">
+      <c r="A55" s="115"/>
+      <c r="B55" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="D55" s="42" t="s">
+      <c r="C55" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" s="106" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="89"/>
-      <c r="B56" s="42" t="s">
+      <c r="A56" s="115"/>
+      <c r="B56" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="D56" s="42" t="s">
+      <c r="C56" s="106" t="s">
+        <v>407</v>
+      </c>
+      <c r="D56" s="106" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="90"/>
-      <c r="B57" s="42" t="s">
+      <c r="A57" s="116"/>
+      <c r="B57" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="106" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5093,15 +5148,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="97.125" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="42.625" customWidth="1"/>
@@ -5112,715 +5167,715 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="23"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="103" t="s">
-        <v>376</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>390</v>
+      <c r="A2" s="96" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1">
-      <c r="A3" s="100"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>369</v>
+      <c r="A3" s="93"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="100"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="93"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="93"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" customHeight="1">
+      <c r="A7" s="93"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="100"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="100"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>406</v>
+      <c r="D7" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="74" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="75" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>405</v>
+      <c r="D8" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42.75">
-      <c r="A9" s="100"/>
-      <c r="B9" s="98" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>410</v>
+      <c r="A9" s="93"/>
+      <c r="B9" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>401</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="100"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>357</v>
+      <c r="A10" s="93"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="100"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>392</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>355</v>
+      <c r="A11" s="93"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>349</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="100"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>353</v>
+        <v>348</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>347</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="100"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>352</v>
+      <c r="D13" s="25" t="s">
+        <v>346</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="100"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>391</v>
+      <c r="A14" s="93"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>385</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="100"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>341</v>
+      <c r="D15" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>335</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="100"/>
-      <c r="B16" s="98"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>342</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="100"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>340</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="100"/>
-      <c r="B18" s="98"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>344</v>
+        <v>339</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>338</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="100"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>395</v>
+        <v>334</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="100"/>
-      <c r="B20" s="98"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>393</v>
+        <v>333</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>387</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="100"/>
-      <c r="B21" s="98"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>394</v>
+      <c r="D21" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="100"/>
-      <c r="B22" s="98" t="s">
-        <v>337</v>
+      <c r="A22" s="93"/>
+      <c r="B22" s="95" t="s">
+        <v>466</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>335</v>
+        <v>331</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>330</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="100"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="100"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>330</v>
+        <v>326</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>325</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="101"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>326</v>
+      <c r="A25" s="94"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5" ht="209.25" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38" t="s">
-        <v>325</v>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37" t="s">
+        <v>321</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="26"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="71.25">
-      <c r="A28" s="102" t="s">
-        <v>324</v>
-      </c>
-      <c r="B28" s="102" t="s">
-        <v>323</v>
+      <c r="A28" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>319</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>317</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="114">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>315</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="85.5">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="D31" s="97" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>388</v>
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="54" t="s">
-        <v>389</v>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="40" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" s="26"/>
+        <v>310</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D34" s="26"/>
+        <v>308</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D35" s="26"/>
+        <v>306</v>
+      </c>
+      <c r="D35" s="25"/>
       <c r="E35" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D36" s="26"/>
+        <v>304</v>
+      </c>
+      <c r="D36" s="25"/>
       <c r="E36" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="98"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>385</v>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="98"/>
-      <c r="B38" s="98"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D38" s="26"/>
+        <v>300</v>
+      </c>
+      <c r="D38" s="25"/>
       <c r="E38" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="98"/>
-      <c r="B39" s="98"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D39" s="26"/>
+        <v>298</v>
+      </c>
+      <c r="D39" s="25"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="98"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>299</v>
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>296</v>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>294</v>
+        <v>291</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>290</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="98"/>
-      <c r="B43" s="102" t="s">
-        <v>293</v>
+      <c r="A43" s="91"/>
+      <c r="B43" s="95" t="s">
+        <v>289</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D43" s="26"/>
+        <v>288</v>
+      </c>
+      <c r="D43" s="25"/>
       <c r="E43" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="26"/>
+        <v>286</v>
+      </c>
+      <c r="D44" s="25"/>
       <c r="E44" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D45" s="26"/>
+        <v>284</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="26"/>
+        <v>282</v>
+      </c>
+      <c r="D46" s="25"/>
       <c r="E46" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="17" t="s">
-        <v>283</v>
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="16" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="98"/>
-      <c r="B48" s="102" t="s">
-        <v>282</v>
+      <c r="A48" s="91"/>
+      <c r="B48" s="95" t="s">
+        <v>278</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="26"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="98"/>
-      <c r="B51" s="98"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="26"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="17" t="s">
-        <v>276</v>
+      <c r="A52" s="91"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="16" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="98"/>
-      <c r="B53" s="98" t="s">
-        <v>275</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>273</v>
+      <c r="A53" s="91"/>
+      <c r="B53" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="98"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>270</v>
+      <c r="A54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="98"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>264</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="98"/>
-      <c r="B56" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>265</v>
+      <c r="A56" s="91"/>
+      <c r="B56" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="98"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>262</v>
+      <c r="A57" s="91"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="98"/>
-      <c r="B58" s="98"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>256</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5828,294 +5883,294 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="23"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="103" t="s">
-        <v>259</v>
-      </c>
-      <c r="B60" s="106" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>256</v>
+      <c r="A60" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="104"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E61" s="20"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5" ht="57">
-      <c r="A62" s="100"/>
-      <c r="B62" s="105" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>252</v>
+      <c r="A62" s="93"/>
+      <c r="B62" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="100"/>
-      <c r="B63" s="105"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>246</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="100"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>246</v>
+      <c r="A64" s="93"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="42.75">
-      <c r="A65" s="100"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>423</v>
+      <c r="A65" s="93"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="57">
-      <c r="A66" s="100"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>241</v>
+      <c r="A66" s="93"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="57">
-      <c r="A67" s="100"/>
-      <c r="B67" s="105"/>
+      <c r="A67" s="93"/>
+      <c r="B67" s="98"/>
       <c r="C67" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="100"/>
-      <c r="B68" s="105"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>419</v>
+        <v>234</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>410</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.5">
-      <c r="A69" s="100"/>
-      <c r="B69" s="105"/>
-      <c r="C69" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>422</v>
+      <c r="A69" s="93"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="71.25">
-      <c r="A70" s="101"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>418</v>
+      <c r="A70" s="94"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="53"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="67"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="29"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="B73" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" s="33" t="s">
+      <c r="A73" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="B73" s="92" t="s">
         <v>229</v>
       </c>
+      <c r="C73" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="94"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="32" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="31"/>
+    </row>
+    <row r="75" spans="1:5" ht="42.75">
+      <c r="A75" s="87"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" ht="42.75">
-      <c r="A75" s="94"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="34" t="s">
-        <v>427</v>
+      <c r="D75" s="32"/>
+      <c r="E75" s="33" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="85.5">
-      <c r="A76" s="94"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>425</v>
+      <c r="A76" s="87"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="42.75">
-      <c r="A77" s="94"/>
-      <c r="B77" s="100"/>
+      <c r="A77" s="87"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="94"/>
-      <c r="B78" s="100"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="57">
-      <c r="A79" s="94"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>219</v>
+      <c r="A79" s="87"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="42.75">
-      <c r="A80" s="94"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>430</v>
+      <c r="A80" s="87"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="94"/>
-      <c r="B81" s="100"/>
-      <c r="C81" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E81" s="32"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" s="31"/>
     </row>
     <row r="82" spans="1:5" ht="57">
-      <c r="A82" s="95"/>
-      <c r="B82" s="101"/>
+      <c r="A82" s="88"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6149,8 +6204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="6" sqref="B2 B4 B6 B9 A8:A10 A4:A7 A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6161,342 +6216,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="108"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="126"/>
+      <c r="B5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="108"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="108"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="126"/>
+      <c r="B7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="126"/>
+      <c r="B9" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="108"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="102" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="110"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="110"/>
+      <c r="C12" s="103"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="108"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="108"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="101"/>
+      <c r="B19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="108"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="101"/>
+      <c r="B25" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="101"/>
+      <c r="B26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="101"/>
+      <c r="B27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="101"/>
+      <c r="B28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="101"/>
+      <c r="B30" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="101"/>
+      <c r="B31" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="101"/>
+      <c r="B32" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="108"/>
-      <c r="B33" s="39" t="s">
+      <c r="A33" s="101"/>
+      <c r="B33" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="101"/>
+      <c r="B34" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="17.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="C35" s="39" t="s">
+      <c r="B35" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="108"/>
-      <c r="B37" s="39" t="s">
+      <c r="A37" s="101"/>
+      <c r="B37" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="38" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="108"/>
-      <c r="B38" s="39" t="s">
+      <c r="A38" s="101"/>
+      <c r="B38" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>76</v>
       </c>
     </row>
